--- a/data/pca/factorExposure/factorExposure_2017-12-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-12-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +720,82 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.008722041715330121</v>
+        <v>0.01183561477715869</v>
       </c>
       <c r="C2">
-        <v>0.006721518687440193</v>
+        <v>0.03842526461142679</v>
       </c>
       <c r="D2">
-        <v>0.002228801942964568</v>
+        <v>0.02869863756639612</v>
       </c>
       <c r="E2">
-        <v>-0.02097743172336717</v>
+        <v>0.02666495578802286</v>
       </c>
       <c r="F2">
-        <v>-0.05741158326257961</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03607459349591553</v>
+      </c>
+      <c r="G2">
+        <v>0.01329381474772287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04395164216775253</v>
+        <v>0.05783905473463737</v>
       </c>
       <c r="C3">
-        <v>0.04855039034319902</v>
+        <v>0.07986780061641616</v>
       </c>
       <c r="D3">
-        <v>0.001715799352062606</v>
+        <v>0.01463613590027608</v>
       </c>
       <c r="E3">
-        <v>0.03678138748173638</v>
+        <v>0.08257203136150658</v>
       </c>
       <c r="F3">
-        <v>-0.2556554541740921</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.06400698274149852</v>
+      </c>
+      <c r="G3">
+        <v>0.0683917322893642</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02976105105953601</v>
+        <v>0.05515897851029238</v>
       </c>
       <c r="C4">
-        <v>0.02111549530483093</v>
+        <v>0.06213757112947717</v>
       </c>
       <c r="D4">
-        <v>-0.02471871015045374</v>
+        <v>0.02215823461810455</v>
       </c>
       <c r="E4">
-        <v>-0.04329844105747899</v>
+        <v>0.001962530421624081</v>
       </c>
       <c r="F4">
-        <v>-0.03779492711107233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.01712572657448469</v>
+      </c>
+      <c r="G4">
+        <v>0.04113502223070838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +812,220 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03386028528102707</v>
+        <v>0.03207549954136857</v>
       </c>
       <c r="C6">
-        <v>0.03809189708281152</v>
+        <v>0.05645799120261552</v>
       </c>
       <c r="D6">
-        <v>-0.01529814473788912</v>
+        <v>0.01616096974549493</v>
       </c>
       <c r="E6">
-        <v>-0.06492297779961502</v>
+        <v>0.004735195617229806</v>
       </c>
       <c r="F6">
-        <v>-0.03880612023356435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01672043745100225</v>
+      </c>
+      <c r="G6">
+        <v>0.02269136663544187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01501152742587803</v>
+        <v>0.01800469094490754</v>
       </c>
       <c r="C7">
-        <v>0.03114987223900258</v>
+        <v>0.03810867723319251</v>
       </c>
       <c r="D7">
-        <v>-0.06686423928383126</v>
+        <v>0.01258020902766033</v>
       </c>
       <c r="E7">
-        <v>0.005962046141593854</v>
+        <v>-0.01352810328046955</v>
       </c>
       <c r="F7">
-        <v>-0.006892762400225683</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.009813684385099927</v>
+      </c>
+      <c r="G7">
+        <v>0.07520750289887575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.01425660828804023</v>
+        <v>-0.00465944577609715</v>
       </c>
       <c r="C8">
-        <v>-0.009929037975291559</v>
+        <v>0.01377288526044003</v>
       </c>
       <c r="D8">
-        <v>-0.01521898446675275</v>
+        <v>0.004041732963432876</v>
       </c>
       <c r="E8">
-        <v>-0.02279782881108451</v>
+        <v>0.01678631833457273</v>
       </c>
       <c r="F8">
-        <v>-0.02051346288260754</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02261474201635522</v>
+      </c>
+      <c r="G8">
+        <v>0.02525125756626027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02228768577003586</v>
+        <v>0.02830446878259142</v>
       </c>
       <c r="C9">
-        <v>0.02428294582987356</v>
+        <v>0.04159510995825051</v>
       </c>
       <c r="D9">
-        <v>-0.01367651793203393</v>
+        <v>0.01535973795927381</v>
       </c>
       <c r="E9">
-        <v>-0.02959398209792982</v>
+        <v>0.00411081940104567</v>
       </c>
       <c r="F9">
-        <v>-0.06006599234710021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01997576271647583</v>
+      </c>
+      <c r="G9">
+        <v>0.03224770275398303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07645682802173596</v>
+        <v>0.08484595409233395</v>
       </c>
       <c r="C10">
-        <v>0.05475584677798775</v>
+        <v>-0.1852315686390776</v>
       </c>
       <c r="D10">
-        <v>0.04199593163031445</v>
+        <v>-0.01898726345762587</v>
       </c>
       <c r="E10">
-        <v>0.1522969579316743</v>
+        <v>0.02069851926639271</v>
       </c>
       <c r="F10">
-        <v>-0.03328212214283269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.01302664988217602</v>
+      </c>
+      <c r="G10">
+        <v>0.03655864704623952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.007892392498530146</v>
+        <v>0.03527062945300286</v>
       </c>
       <c r="C11">
-        <v>0.02779869101936554</v>
+        <v>0.05322619758119507</v>
       </c>
       <c r="D11">
-        <v>0.001190812205696901</v>
+        <v>0.001127131558802512</v>
       </c>
       <c r="E11">
-        <v>-0.04669318915917314</v>
+        <v>-0.002753107038977411</v>
       </c>
       <c r="F11">
-        <v>-0.01583717496836401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.0242905259723536</v>
+      </c>
+      <c r="G11">
+        <v>0.01198448512275652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.01736768438564271</v>
+        <v>0.03297518523357962</v>
       </c>
       <c r="C12">
-        <v>0.02695339423193067</v>
+        <v>0.04496295534007121</v>
       </c>
       <c r="D12">
-        <v>-0.006920589053703901</v>
+        <v>0.005491867054135661</v>
       </c>
       <c r="E12">
-        <v>-0.04439589285757251</v>
+        <v>-0.008838972847467477</v>
       </c>
       <c r="F12">
-        <v>0.007735740194461491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.005627359100257356</v>
+      </c>
+      <c r="G12">
+        <v>0.01777582381301906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0234223217967698</v>
+        <v>0.01028886649597741</v>
       </c>
       <c r="C13">
-        <v>0.00838449778922833</v>
+        <v>0.03344149595154148</v>
       </c>
       <c r="D13">
-        <v>-0.001216099781613446</v>
+        <v>0.02465250846935613</v>
       </c>
       <c r="E13">
-        <v>-0.02217941681158002</v>
+        <v>0.02001639501415151</v>
       </c>
       <c r="F13">
-        <v>-0.04042664159311351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02532730927086672</v>
+      </c>
+      <c r="G13">
+        <v>0.02550005914881115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.005632815254891769</v>
+        <v>0.007848623435687858</v>
       </c>
       <c r="C14">
-        <v>0.01717117841252922</v>
+        <v>0.02450506380437261</v>
       </c>
       <c r="D14">
-        <v>-0.01372678267742387</v>
+        <v>0.008387829711575543</v>
       </c>
       <c r="E14">
-        <v>-0.008610138964791344</v>
+        <v>-0.004770212018075632</v>
       </c>
       <c r="F14">
-        <v>-0.01047796152359487</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.002686246946388836</v>
+      </c>
+      <c r="G14">
+        <v>0.03572208234261461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1042,36 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.006250962391896481</v>
+        <v>0.03161200783197803</v>
       </c>
       <c r="C16">
-        <v>0.02922929946934454</v>
+        <v>0.04325817323157207</v>
       </c>
       <c r="D16">
-        <v>-0.004509492479070508</v>
+        <v>0.0007479560300576362</v>
       </c>
       <c r="E16">
-        <v>-0.04376633236771436</v>
+        <v>-0.001115763523251674</v>
       </c>
       <c r="F16">
-        <v>-0.01808100886545436</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01059036126295065</v>
+      </c>
+      <c r="G16">
+        <v>0.01603108649552471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1088,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1111,82 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01132480302590447</v>
+        <v>0.02935984770753081</v>
       </c>
       <c r="C19">
-        <v>0.0209873226898842</v>
+        <v>0.05478736247372416</v>
       </c>
       <c r="D19">
-        <v>-0.005907262693119886</v>
+        <v>0.01511526184085829</v>
       </c>
       <c r="E19">
-        <v>-0.0403483631492139</v>
+        <v>0.03845083725545986</v>
       </c>
       <c r="F19">
-        <v>-0.05944273695777427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.04187374796121577</v>
+      </c>
+      <c r="G19">
+        <v>0.0337818712150898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.003585722902963225</v>
+        <v>0.01055755768715916</v>
       </c>
       <c r="C20">
-        <v>0.004914963980097198</v>
+        <v>0.0347804109485275</v>
       </c>
       <c r="D20">
-        <v>-0.003597170328008578</v>
+        <v>0.01305164138403544</v>
       </c>
       <c r="E20">
-        <v>-0.001388453720552953</v>
+        <v>0.01990978381107663</v>
       </c>
       <c r="F20">
-        <v>-0.02837121334272567</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.008959365773598162</v>
+      </c>
+      <c r="G20">
+        <v>0.0271857290770064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01822641129284541</v>
+        <v>0.01274537332413032</v>
       </c>
       <c r="C21">
-        <v>0.03962039185863069</v>
+        <v>0.03342120799717421</v>
       </c>
       <c r="D21">
-        <v>-0.01960610355841391</v>
+        <v>0.01580151375878837</v>
       </c>
       <c r="E21">
-        <v>-0.01930677745030851</v>
+        <v>0.02669385028406594</v>
       </c>
       <c r="F21">
-        <v>-0.02287773700738801</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.0207901146455601</v>
+      </c>
+      <c r="G21">
+        <v>0.04923302560829828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1203,13 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,70 +1226,82 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.007300694926613984</v>
+        <v>0.02568645607828498</v>
       </c>
       <c r="C24">
-        <v>0.02348384492197805</v>
+        <v>0.04603611811282447</v>
       </c>
       <c r="D24">
-        <v>-0.003215228041975028</v>
+        <v>0.006079956474824067</v>
       </c>
       <c r="E24">
-        <v>-0.03790693256725709</v>
+        <v>-0.006674464843099831</v>
       </c>
       <c r="F24">
-        <v>-0.01575552587589843</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02151235293164238</v>
+      </c>
+      <c r="G24">
+        <v>0.01532876016130458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.02200565771351891</v>
+        <v>0.0428796361740605</v>
       </c>
       <c r="C25">
-        <v>0.03001656506933743</v>
+        <v>0.05244445497802285</v>
       </c>
       <c r="D25">
-        <v>-0.001520851754442022</v>
+        <v>0.009973846495317252</v>
       </c>
       <c r="E25">
-        <v>-0.04179128940112686</v>
+        <v>-0.01325185219303026</v>
       </c>
       <c r="F25">
-        <v>-0.02947069694103669</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01476517050310912</v>
+      </c>
+      <c r="G25">
+        <v>0.02125640827026073</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01469917559242271</v>
+        <v>0.007619144466885352</v>
       </c>
       <c r="C26">
-        <v>-0.004657516577119956</v>
+        <v>0.007736872588159239</v>
       </c>
       <c r="D26">
-        <v>-0.01105230344502742</v>
+        <v>0.02381495775826248</v>
       </c>
       <c r="E26">
-        <v>-0.0009674270090910018</v>
+        <v>0.009251137771169492</v>
       </c>
       <c r="F26">
-        <v>-0.03039698955769405</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.00924350922364487</v>
+      </c>
+      <c r="G26">
+        <v>0.02551498437164965</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,150 +1318,174 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1261276191817277</v>
+        <v>0.1098301968091603</v>
       </c>
       <c r="C28">
-        <v>0.07003230414524107</v>
+        <v>-0.2267037198516786</v>
       </c>
       <c r="D28">
-        <v>0.05679106783544438</v>
+        <v>-0.01056204530173218</v>
       </c>
       <c r="E28">
-        <v>0.2256623038827593</v>
+        <v>0.008453197566074508</v>
       </c>
       <c r="F28">
-        <v>-0.01125271237344122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.007371599462140244</v>
+      </c>
+      <c r="G28">
+        <v>0.05253741312450627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01092197412530675</v>
+        <v>0.01254022211983412</v>
       </c>
       <c r="C29">
-        <v>0.01399807198603006</v>
+        <v>0.01827798982125181</v>
       </c>
       <c r="D29">
-        <v>-0.01048279484190079</v>
+        <v>0.00700619367061462</v>
       </c>
       <c r="E29">
-        <v>-0.007784087716585757</v>
+        <v>-0.003115168299301502</v>
       </c>
       <c r="F29">
-        <v>-0.01420927048264968</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.005413258785536499</v>
+      </c>
+      <c r="G29">
+        <v>0.02914206131748456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02827121312091222</v>
+        <v>0.03873680486941947</v>
       </c>
       <c r="C30">
-        <v>0.02285056641425311</v>
+        <v>0.07104647286060005</v>
       </c>
       <c r="D30">
-        <v>0.04209149538259114</v>
+        <v>0.02695508652946746</v>
       </c>
       <c r="E30">
-        <v>-0.08192049280081473</v>
+        <v>0.01902032020775565</v>
       </c>
       <c r="F30">
-        <v>-0.06542181007354657</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04498089617128758</v>
+      </c>
+      <c r="G30">
+        <v>-0.006952094892400764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01722866966335785</v>
+        <v>0.04484975330674326</v>
       </c>
       <c r="C31">
-        <v>0.05234517320061765</v>
+        <v>0.02834541457076289</v>
       </c>
       <c r="D31">
-        <v>-0.006246106522599258</v>
+        <v>0.002604345373331363</v>
       </c>
       <c r="E31">
-        <v>-0.01721447625672041</v>
+        <v>-0.01190087232056048</v>
       </c>
       <c r="F31">
-        <v>0.002062731767205323</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.03131484401060382</v>
+      </c>
+      <c r="G31">
+        <v>0.02886206311386834</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.01125381633620034</v>
+        <v>0.003995285165370728</v>
       </c>
       <c r="C32">
-        <v>0.01485797187874555</v>
+        <v>0.03431400812857623</v>
       </c>
       <c r="D32">
-        <v>-0.02625682844984063</v>
+        <v>-0.004748972558939987</v>
       </c>
       <c r="E32">
-        <v>-0.01912009114037734</v>
+        <v>0.01191916363723011</v>
       </c>
       <c r="F32">
-        <v>-0.03899998918206172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08022227700527096</v>
+      </c>
+      <c r="G32">
+        <v>0.05245077625323951</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01893418147760585</v>
+        <v>0.02845150381480465</v>
       </c>
       <c r="C33">
-        <v>0.02579994129817199</v>
+        <v>0.05094025933280483</v>
       </c>
       <c r="D33">
-        <v>0.01777731414508471</v>
+        <v>0.01398244285792175</v>
       </c>
       <c r="E33">
-        <v>-0.03810568125833352</v>
+        <v>0.01791354948226437</v>
       </c>
       <c r="F33">
-        <v>-0.03814771480457371</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02520151834602755</v>
+      </c>
+      <c r="G33">
+        <v>0.02059942344616227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.003700537605790107</v>
+        <v>0.04567010787524335</v>
       </c>
       <c r="C34">
-        <v>0.03409710525790347</v>
+        <v>0.05293285593727744</v>
       </c>
       <c r="D34">
-        <v>-0.01118127201294609</v>
+        <v>-0.006210344410000452</v>
       </c>
       <c r="E34">
-        <v>-0.04043735605558071</v>
+        <v>-0.01259465867754335</v>
       </c>
       <c r="F34">
-        <v>-0.01797804205959636</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02103121160637</v>
+      </c>
+      <c r="G34">
+        <v>0.02545453568997616</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1502,36 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01613078116306649</v>
+        <v>0.01070260079996021</v>
       </c>
       <c r="C36">
-        <v>0.01016204744878731</v>
+        <v>0.004291562885839924</v>
       </c>
       <c r="D36">
-        <v>-0.003964302899796059</v>
+        <v>0.01103113723155446</v>
       </c>
       <c r="E36">
-        <v>-0.002974933177458705</v>
+        <v>-0.001054030603906053</v>
       </c>
       <c r="F36">
-        <v>-0.01227616483244105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-4.335265597746495e-05</v>
+      </c>
+      <c r="G36">
+        <v>0.01777138362976055</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1548,174 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.001903624520297564</v>
+        <v>0.03277496281105844</v>
       </c>
       <c r="C38">
-        <v>0.0332726146405068</v>
+        <v>0.02275357013329037</v>
       </c>
       <c r="D38">
-        <v>0.005531150632394563</v>
+        <v>-0.008195683361815599</v>
       </c>
       <c r="E38">
-        <v>-0.01443656404151016</v>
+        <v>0.003426783451502617</v>
       </c>
       <c r="F38">
-        <v>-0.04637673177893107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.005376103849959271</v>
+      </c>
+      <c r="G38">
+        <v>0.02709016146756248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005587729905386818</v>
+        <v>0.03078015501778962</v>
       </c>
       <c r="C39">
-        <v>0.01772526600079365</v>
+        <v>0.08277297616348632</v>
       </c>
       <c r="D39">
-        <v>-0.01585513562486887</v>
+        <v>0.01150184166642388</v>
       </c>
       <c r="E39">
-        <v>-0.06904991474386075</v>
+        <v>0.008338286800941928</v>
       </c>
       <c r="F39">
-        <v>-0.04953966939011487</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.03954284462462825</v>
+      </c>
+      <c r="G39">
+        <v>0.0170508355552308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01654412594233727</v>
+        <v>0.01906663579471222</v>
       </c>
       <c r="C40">
-        <v>0.02077291902297733</v>
+        <v>0.03181052210030507</v>
       </c>
       <c r="D40">
-        <v>-0.0007989786424393247</v>
+        <v>0.0129931653170751</v>
       </c>
       <c r="E40">
-        <v>-0.04303256564555079</v>
+        <v>0.01485275403909447</v>
       </c>
       <c r="F40">
-        <v>-0.0386297105975329</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02405691015784751</v>
+      </c>
+      <c r="G40">
+        <v>0.01777897518996781</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.009754043276846759</v>
+        <v>0.01201988055429961</v>
       </c>
       <c r="C41">
-        <v>0.01466705412016737</v>
+        <v>-0.002245059458726449</v>
       </c>
       <c r="D41">
-        <v>0.00428089114497146</v>
+        <v>0.003390843542836698</v>
       </c>
       <c r="E41">
-        <v>0.009059725094697156</v>
+        <v>-0.002986153691939804</v>
       </c>
       <c r="F41">
-        <v>-0.00498991681296761</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-8.772029696069901e-05</v>
+      </c>
+      <c r="G41">
+        <v>0.01223228974020572</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.1211229051683685</v>
+        <v>0.03791947359844252</v>
       </c>
       <c r="C42">
-        <v>0.06575640541319791</v>
+        <v>0.05429936551603035</v>
       </c>
       <c r="D42">
-        <v>0.09484777006843761</v>
+        <v>0.1028663772110506</v>
       </c>
       <c r="E42">
-        <v>-0.156146102030324</v>
+        <v>0.06545561578901921</v>
       </c>
       <c r="F42">
-        <v>-0.1905419335633936</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1100257545404539</v>
+      </c>
+      <c r="G42">
+        <v>-0.2135878115554799</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01487926016465273</v>
+        <v>0.02712225209567869</v>
       </c>
       <c r="C43">
-        <v>0.01231804040476938</v>
+        <v>0.006565445840996666</v>
       </c>
       <c r="D43">
-        <v>0.003607488936530511</v>
+        <v>0.003509633738630359</v>
       </c>
       <c r="E43">
-        <v>0.003604943741992524</v>
+        <v>0.0006982183838211591</v>
       </c>
       <c r="F43">
-        <v>-0.007738625856265433</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.00135294691994774</v>
+      </c>
+      <c r="G43">
+        <v>0.01629909903294054</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002155831733368205</v>
+        <v>0.01637116630573057</v>
       </c>
       <c r="C44">
-        <v>0.01100933838937838</v>
+        <v>0.04857169328691934</v>
       </c>
       <c r="D44">
-        <v>-0.01296577993242035</v>
+        <v>0.00658656111265252</v>
       </c>
       <c r="E44">
-        <v>-0.01694606232477983</v>
+        <v>0.01805597609578559</v>
       </c>
       <c r="F44">
-        <v>-0.07609531371988709</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.0262512024971786</v>
+      </c>
+      <c r="G44">
+        <v>0.03154176081427187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1732,82 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.005136725236755658</v>
+        <v>0.001649452302156874</v>
       </c>
       <c r="C46">
-        <v>0.00823262480774087</v>
+        <v>0.0158731036978477</v>
       </c>
       <c r="D46">
-        <v>-0.007313733427611797</v>
+        <v>0.01149594173716228</v>
       </c>
       <c r="E46">
-        <v>-0.02560558208909785</v>
+        <v>-0.004008155438244486</v>
       </c>
       <c r="F46">
-        <v>-0.03551182827009062</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.009044365656907194</v>
+      </c>
+      <c r="G46">
+        <v>0.02178709435335136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02974028252284869</v>
+        <v>0.07324882795099473</v>
       </c>
       <c r="C47">
-        <v>0.07058043339535156</v>
+        <v>0.06095637882013272</v>
       </c>
       <c r="D47">
-        <v>0.008631440950555864</v>
+        <v>-0.005236803224004476</v>
       </c>
       <c r="E47">
-        <v>-0.03401931269552778</v>
+        <v>-0.01472579324300591</v>
       </c>
       <c r="F47">
-        <v>0.03429243376973586</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.05959061056576635</v>
+      </c>
+      <c r="G47">
+        <v>0.02094467864871736</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01847827772110364</v>
+        <v>0.01928588123189082</v>
       </c>
       <c r="C48">
-        <v>0.02256859370034607</v>
+        <v>0.008437740096947515</v>
       </c>
       <c r="D48">
-        <v>-0.002805121532455044</v>
+        <v>0.0006810202856307649</v>
       </c>
       <c r="E48">
-        <v>-0.008784829986641918</v>
+        <v>-0.003204527578366984</v>
       </c>
       <c r="F48">
-        <v>-0.01550657460621005</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01169185321691499</v>
+      </c>
+      <c r="G48">
+        <v>0.02235273927138937</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1824,59 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.02787487299329954</v>
+        <v>0.07673360294300234</v>
       </c>
       <c r="C50">
-        <v>0.07744388966226488</v>
+        <v>0.06294445927938797</v>
       </c>
       <c r="D50">
-        <v>-0.02276314020828603</v>
+        <v>-0.003840154189652901</v>
       </c>
       <c r="E50">
-        <v>-0.04604659075995633</v>
+        <v>-0.01350272210580144</v>
       </c>
       <c r="F50">
-        <v>0.01400561333245501</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.05855066998054198</v>
+      </c>
+      <c r="G50">
+        <v>0.04494628441144724</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01080559794109032</v>
+        <v>0.01691593460035954</v>
       </c>
       <c r="C51">
-        <v>0.005259802126335038</v>
+        <v>0.02725123682076352</v>
       </c>
       <c r="D51">
-        <v>-0.009659616081420725</v>
+        <v>0.00867372634928478</v>
       </c>
       <c r="E51">
-        <v>0.01861628387859397</v>
+        <v>0.007204673190047664</v>
       </c>
       <c r="F51">
-        <v>-0.0576932776195572</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.03868501924489978</v>
+      </c>
+      <c r="G51">
+        <v>0.03950553204329317</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +1893,220 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.04398604112719208</v>
+        <v>0.09691500258628155</v>
       </c>
       <c r="C53">
-        <v>0.08331568775258744</v>
+        <v>0.07491041481803698</v>
       </c>
       <c r="D53">
-        <v>-0.01090893157181589</v>
+        <v>-0.006407167567440621</v>
       </c>
       <c r="E53">
-        <v>-0.06503422260700742</v>
+        <v>-0.04026687314790921</v>
       </c>
       <c r="F53">
-        <v>0.05855726698438856</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06503952570732914</v>
+      </c>
+      <c r="G53">
+        <v>0.0217185451051984</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01283163930188004</v>
+        <v>0.0286111882711403</v>
       </c>
       <c r="C54">
-        <v>0.02857685060462775</v>
+        <v>0.003710749765671332</v>
       </c>
       <c r="D54">
-        <v>-0.004083361066577635</v>
+        <v>-0.004393104055449305</v>
       </c>
       <c r="E54">
-        <v>-0.003192127286091254</v>
+        <v>0.002456813701860417</v>
       </c>
       <c r="F54">
-        <v>-0.00159017521484722</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.0016107850868135</v>
+      </c>
+      <c r="G54">
+        <v>0.02845857553171411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.02608393469546452</v>
+        <v>0.07461474588266477</v>
       </c>
       <c r="C55">
-        <v>0.07276097601306718</v>
+        <v>0.06810166744542612</v>
       </c>
       <c r="D55">
-        <v>-0.0008314238456778387</v>
+        <v>-0.005327797339288232</v>
       </c>
       <c r="E55">
-        <v>-0.07011704308116093</v>
+        <v>-0.02708594261946017</v>
       </c>
       <c r="F55">
-        <v>0.04267200888320865</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.05922139763131155</v>
+      </c>
+      <c r="G55">
+        <v>0.01019734860481089</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.07137541024362187</v>
+        <v>0.1488896717743156</v>
       </c>
       <c r="C56">
-        <v>0.1153539434973567</v>
+        <v>0.09742251801485687</v>
       </c>
       <c r="D56">
-        <v>4.336639312478443e-05</v>
+        <v>-0.01564902134092892</v>
       </c>
       <c r="E56">
-        <v>-0.09073027439750962</v>
+        <v>-0.04557378005381822</v>
       </c>
       <c r="F56">
-        <v>0.08888259232520924</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.105013481365817</v>
+      </c>
+      <c r="G56">
+        <v>-0.001172613670292981</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.04596776016894542</v>
+        <v>0.01343240928957053</v>
       </c>
       <c r="C57">
-        <v>0.009240341746612554</v>
+        <v>0.01177319256748405</v>
       </c>
       <c r="D57">
-        <v>-0.003987139888856992</v>
+        <v>0.02368871178736798</v>
       </c>
       <c r="E57">
-        <v>-0.03505568101094195</v>
+        <v>0.02848634989946308</v>
       </c>
       <c r="F57">
-        <v>-0.03815817609429077</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.01545717659541158</v>
+      </c>
+      <c r="G57">
+        <v>0.02183659206905236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.09522703706201882</v>
+        <v>0.07150547738746246</v>
       </c>
       <c r="C58">
-        <v>0.0797730126857065</v>
+        <v>0.07445226241561588</v>
       </c>
       <c r="D58">
-        <v>0.1135040739946585</v>
+        <v>0.0205821874867551</v>
       </c>
       <c r="E58">
-        <v>-0.1448079430391176</v>
+        <v>0.9442198821491958</v>
       </c>
       <c r="F58">
-        <v>-0.5203916683029656</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2288044197146283</v>
+      </c>
+      <c r="G58">
+        <v>0.06396932266020457</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1326265829805711</v>
+        <v>0.1489024318552777</v>
       </c>
       <c r="C59">
-        <v>0.06651524733214317</v>
+        <v>-0.2161692955335708</v>
       </c>
       <c r="D59">
-        <v>0.07694133343265096</v>
+        <v>-0.01792921705462976</v>
       </c>
       <c r="E59">
-        <v>0.188957948637925</v>
+        <v>0.01647725587239673</v>
       </c>
       <c r="F59">
-        <v>-0.04956908210983039</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.009756929586546366</v>
+      </c>
+      <c r="G59">
+        <v>0.01706441898239488</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1549999816683351</v>
+        <v>0.2948573008080504</v>
       </c>
       <c r="C60">
-        <v>0.1263979490580535</v>
+        <v>0.07942396271587807</v>
       </c>
       <c r="D60">
-        <v>0.05386427438327375</v>
+        <v>0.005987019238915148</v>
       </c>
       <c r="E60">
-        <v>-0.05706797777893022</v>
+        <v>0.02359635784739346</v>
       </c>
       <c r="F60">
-        <v>-0.2063829824934327</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.3823596527900261</v>
+      </c>
+      <c r="G60">
+        <v>-0.06239912899120592</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.01318677475697709</v>
+        <v>0.03118821625825222</v>
       </c>
       <c r="C61">
-        <v>0.0296081326476896</v>
+        <v>0.06397885403615858</v>
       </c>
       <c r="D61">
-        <v>-0.005678686677394452</v>
+        <v>0.004969858489464341</v>
       </c>
       <c r="E61">
-        <v>-0.05980417137847005</v>
+        <v>0.005626980338236074</v>
       </c>
       <c r="F61">
-        <v>-0.03124198960248503</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02410437503431723</v>
+      </c>
+      <c r="G61">
+        <v>0.01816121317457036</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2123,174 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.006675986282853071</v>
+        <v>0.01374057660479434</v>
       </c>
       <c r="C63">
-        <v>0.01704971544162261</v>
+        <v>0.02678554494075679</v>
       </c>
       <c r="D63">
-        <v>-0.006455318798573857</v>
+        <v>0.007588707172602563</v>
       </c>
       <c r="E63">
-        <v>-0.02044347696660872</v>
+        <v>-0.0130184043006099</v>
       </c>
       <c r="F63">
-        <v>0.001680858835179948</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.01227409289439875</v>
+      </c>
+      <c r="G63">
+        <v>0.02675158877826532</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02246720628601695</v>
+        <v>0.04695240624276955</v>
       </c>
       <c r="C64">
-        <v>0.04226673269007779</v>
+        <v>0.03486570103615075</v>
       </c>
       <c r="D64">
-        <v>-2.668876207011484e-06</v>
+        <v>0.004429954703440628</v>
       </c>
       <c r="E64">
-        <v>-0.04379959020594731</v>
+        <v>-0.01003113002156753</v>
       </c>
       <c r="F64">
-        <v>-0.01765399333889208</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.01504101245508892</v>
+      </c>
+      <c r="G64">
+        <v>0.01662282892887465</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.03811288089440665</v>
+        <v>0.07966475423185865</v>
       </c>
       <c r="C65">
-        <v>0.04478352232502744</v>
+        <v>0.06698562997960809</v>
       </c>
       <c r="D65">
-        <v>-0.01401648612479407</v>
+        <v>0.01499687107117561</v>
       </c>
       <c r="E65">
-        <v>-0.06865573830201718</v>
+        <v>0.004463382623261838</v>
       </c>
       <c r="F65">
-        <v>-0.0360050036417253</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03794445082594414</v>
+      </c>
+      <c r="G65">
+        <v>0.01062039212039408</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.01116254838151738</v>
+        <v>0.05367744672440652</v>
       </c>
       <c r="C66">
-        <v>0.03773994703313112</v>
+        <v>0.1160784760324394</v>
       </c>
       <c r="D66">
-        <v>0.003658860698754114</v>
+        <v>0.01062195126912217</v>
       </c>
       <c r="E66">
-        <v>-0.09227432767940213</v>
+        <v>0.01157805116734143</v>
       </c>
       <c r="F66">
-        <v>-0.03337756944208554</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.04700334716807535</v>
+      </c>
+      <c r="G66">
+        <v>0.006725368082902016</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.01515976667647533</v>
+        <v>0.05779605580008979</v>
       </c>
       <c r="C67">
-        <v>0.04254310890711401</v>
+        <v>0.02524761720687294</v>
       </c>
       <c r="D67">
-        <v>0.00833288139100454</v>
+        <v>-0.007059185791797983</v>
       </c>
       <c r="E67">
-        <v>-0.01741716165037475</v>
+        <v>-0.003380807384613212</v>
       </c>
       <c r="F67">
-        <v>-0.02892312627502276</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.003366332300931989</v>
+      </c>
+      <c r="G67">
+        <v>0.02681068447608576</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.134235230842001</v>
+        <v>0.1233892874301237</v>
       </c>
       <c r="C68">
-        <v>0.04469292005826878</v>
+        <v>-0.2702375389498752</v>
       </c>
       <c r="D68">
-        <v>0.06527186990307429</v>
+        <v>0.0008512980920430889</v>
       </c>
       <c r="E68">
-        <v>0.2009977183525751</v>
+        <v>0.01980157703166657</v>
       </c>
       <c r="F68">
-        <v>-0.01514889000647635</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01665979655506889</v>
+      </c>
+      <c r="G68">
+        <v>0.02137132243925146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.01728579307048369</v>
+        <v>0.0768392823404505</v>
       </c>
       <c r="C69">
-        <v>0.0635009149881975</v>
+        <v>0.05898947736256445</v>
       </c>
       <c r="D69">
-        <v>0.005431218508877247</v>
+        <v>-0.009721814141926242</v>
       </c>
       <c r="E69">
-        <v>-0.03772272774397525</v>
+        <v>-0.03023243306113032</v>
       </c>
       <c r="F69">
-        <v>0.02626991128432578</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.03774966527858724</v>
+      </c>
+      <c r="G69">
+        <v>0.0177842626800397</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2307,197 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1144433505936755</v>
+        <v>0.1240397024981924</v>
       </c>
       <c r="C71">
-        <v>0.05158005518378448</v>
+        <v>-0.2278322108808817</v>
       </c>
       <c r="D71">
-        <v>0.05131640184810811</v>
+        <v>-0.007992103126102865</v>
       </c>
       <c r="E71">
-        <v>0.1942768494607212</v>
+        <v>0.02678814571942588</v>
       </c>
       <c r="F71">
-        <v>-0.02804131082665195</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02071613607439533</v>
+      </c>
+      <c r="G71">
+        <v>0.03593794817845324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.04070949687807487</v>
+        <v>0.08603660413025423</v>
       </c>
       <c r="C72">
-        <v>0.1352012021664119</v>
+        <v>0.08066563105314185</v>
       </c>
       <c r="D72">
-        <v>0.01804178481040365</v>
+        <v>-0.009598057935067813</v>
       </c>
       <c r="E72">
-        <v>-0.1397121186183063</v>
+        <v>-0.01529477783073009</v>
       </c>
       <c r="F72">
-        <v>-0.133412346602589</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.03164001800033441</v>
+      </c>
+      <c r="G72">
+        <v>-0.005064577388190937</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1686737189726604</v>
+        <v>0.4059902641738244</v>
       </c>
       <c r="C73">
-        <v>0.162389433818902</v>
+        <v>0.09575442938221465</v>
       </c>
       <c r="D73">
-        <v>0.1082216685121304</v>
+        <v>0.009610926737814921</v>
       </c>
       <c r="E73">
-        <v>-0.1119682526361178</v>
+        <v>0.06587937180290235</v>
       </c>
       <c r="F73">
-        <v>-0.2814254848926846</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.5312732094042153</v>
+      </c>
+      <c r="G73">
+        <v>-0.1221630902033631</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.05387421967288072</v>
+        <v>0.1188991293730438</v>
       </c>
       <c r="C74">
-        <v>0.1176717306175676</v>
+        <v>0.1139435406448178</v>
       </c>
       <c r="D74">
-        <v>0.01269017508299737</v>
+        <v>-0.01134812849040806</v>
       </c>
       <c r="E74">
-        <v>-0.09221134237021561</v>
+        <v>-0.0369774758311564</v>
       </c>
       <c r="F74">
-        <v>0.08177545372573483</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.07245557667883822</v>
+      </c>
+      <c r="G74">
+        <v>0.01521501255590416</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1275802608781687</v>
+        <v>0.2632169120343223</v>
       </c>
       <c r="C75">
-        <v>0.2104948321172347</v>
+        <v>0.1404066899471139</v>
       </c>
       <c r="D75">
-        <v>0.02587976594325293</v>
+        <v>-0.03313952690910987</v>
       </c>
       <c r="E75">
-        <v>-0.148748533326097</v>
+        <v>-0.07492113501941208</v>
       </c>
       <c r="F75">
-        <v>0.1579026669073753</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.2217661893134382</v>
+      </c>
+      <c r="G75">
+        <v>-0.03275597856854819</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1009763066686101</v>
+        <v>0.1428712242346521</v>
       </c>
       <c r="C76">
-        <v>0.2107124592525638</v>
+        <v>0.1191802511036417</v>
       </c>
       <c r="D76">
-        <v>0.003594818273033699</v>
+        <v>-0.02334489950754494</v>
       </c>
       <c r="E76">
-        <v>-0.1535239889149336</v>
+        <v>-0.07078489294860119</v>
       </c>
       <c r="F76">
-        <v>0.2267785640565236</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1419433455151813</v>
+      </c>
+      <c r="G76">
+        <v>0.005245869754042907</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.02360064547764977</v>
+        <v>0.06183868624255343</v>
       </c>
       <c r="C77">
-        <v>0.02584853516832251</v>
+        <v>0.05980511154582305</v>
       </c>
       <c r="D77">
-        <v>-0.008939979488699529</v>
+        <v>0.01197161830021954</v>
       </c>
       <c r="E77">
-        <v>-0.05731148376184365</v>
+        <v>0.03860390374440145</v>
       </c>
       <c r="F77">
-        <v>-0.06735010925842205</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.02119641082220848</v>
+      </c>
+      <c r="G77">
+        <v>0.04027624441224981</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.01888775497405984</v>
+        <v>0.04188853244066719</v>
       </c>
       <c r="C78">
-        <v>0.02018149028633906</v>
+        <v>0.05214443937686018</v>
       </c>
       <c r="D78">
-        <v>-0.01287232725392544</v>
+        <v>0.005171777584841279</v>
       </c>
       <c r="E78">
-        <v>-0.04965642014193432</v>
+        <v>0.01730264908572087</v>
       </c>
       <c r="F78">
-        <v>-0.06152616187345767</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04233904319403272</v>
+      </c>
+      <c r="G78">
+        <v>0.02975751242435655</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2514,105 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.06262134237141692</v>
+        <v>0.06535294523753524</v>
       </c>
       <c r="C80">
-        <v>0.339277935552026</v>
+        <v>0.07416735922884318</v>
       </c>
       <c r="D80">
-        <v>-0.8874616350170509</v>
+        <v>0.01290195817229067</v>
       </c>
       <c r="E80">
-        <v>0.2068785831379069</v>
+        <v>-0.07479235665657309</v>
       </c>
       <c r="F80">
-        <v>-0.1120017182473093</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.02991736273598549</v>
+      </c>
+      <c r="G80">
+        <v>0.9195018777349786</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.08924188962792064</v>
+        <v>0.1478935431610958</v>
       </c>
       <c r="C81">
-        <v>0.1602402965814658</v>
+        <v>0.09008233077733466</v>
       </c>
       <c r="D81">
-        <v>0.006953481619963098</v>
+        <v>-0.01777255070495071</v>
       </c>
       <c r="E81">
-        <v>-0.1112824054323092</v>
+        <v>-0.04862050525155446</v>
       </c>
       <c r="F81">
-        <v>0.1192445301945892</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1367727986558889</v>
+      </c>
+      <c r="G81">
+        <v>0.008519724198958661</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.04241841169542281</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03296513448473529</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.00232180704376745</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.01892005228178881</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.0008167592962437108</v>
+      </c>
+      <c r="G82">
+        <v>-0.005433327602701019</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02250411913237958</v>
+        <v>0.03006398705920945</v>
       </c>
       <c r="C83">
-        <v>0.02789735444598668</v>
+        <v>0.01906540958183439</v>
       </c>
       <c r="D83">
-        <v>0.005280619525584865</v>
+        <v>0.004972369913194466</v>
       </c>
       <c r="E83">
-        <v>-0.01573786345183172</v>
+        <v>0.02632644204264261</v>
       </c>
       <c r="F83">
-        <v>-0.04937373626984137</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.02273163361905175</v>
+      </c>
+      <c r="G83">
+        <v>0.02682382422045085</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2629,266 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1227137591707305</v>
+        <v>0.2415242326723267</v>
       </c>
       <c r="C85">
-        <v>0.189211042288407</v>
+        <v>0.1458753438005484</v>
       </c>
       <c r="D85">
-        <v>0.02266793929486052</v>
+        <v>-0.0218873833384863</v>
       </c>
       <c r="E85">
-        <v>-0.1867476299092972</v>
+        <v>-0.1181070033574001</v>
       </c>
       <c r="F85">
-        <v>0.1663773777102859</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.2109491920298053</v>
+      </c>
+      <c r="G85">
+        <v>-0.05679879911555136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01383938321676299</v>
+        <v>0.01013554937953429</v>
       </c>
       <c r="C86">
-        <v>0.03147350308894049</v>
+        <v>0.022967342035275</v>
       </c>
       <c r="D86">
-        <v>-0.001571009781964137</v>
+        <v>0.009890315608944997</v>
       </c>
       <c r="E86">
-        <v>-0.01912951078037151</v>
+        <v>0.02261712913768441</v>
       </c>
       <c r="F86">
-        <v>-0.06348116085141456</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02301747962396132</v>
+      </c>
+      <c r="G86">
+        <v>0.05311322728498393</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01254313330082978</v>
+        <v>0.01722285655473877</v>
       </c>
       <c r="C87">
-        <v>0.02189731744941884</v>
+        <v>0.02671588355273456</v>
       </c>
       <c r="D87">
-        <v>-0.007272593286305829</v>
+        <v>0.01136474350889537</v>
       </c>
       <c r="E87">
-        <v>-0.03420363819369777</v>
+        <v>0.07789783520536613</v>
       </c>
       <c r="F87">
-        <v>-0.1079009441780895</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.06069254534765275</v>
+      </c>
+      <c r="G87">
+        <v>0.03866315555227334</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.03281006618509071</v>
+        <v>0.08943167730809648</v>
       </c>
       <c r="C88">
-        <v>0.04520808526749938</v>
+        <v>0.05250717643516694</v>
       </c>
       <c r="D88">
-        <v>0.01355141055855021</v>
+        <v>0.02088561944223257</v>
       </c>
       <c r="E88">
-        <v>-0.01416135264801515</v>
+        <v>-0.002618041450398242</v>
       </c>
       <c r="F88">
-        <v>-0.005381570676213474</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.001833694372471405</v>
+      </c>
+      <c r="G88">
+        <v>0.0232973682489109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2360179641827284</v>
+        <v>0.2136434629491835</v>
       </c>
       <c r="C89">
-        <v>0.09014948876004124</v>
+        <v>-0.3772365894698294</v>
       </c>
       <c r="D89">
-        <v>0.1344561493668142</v>
+        <v>-0.01074842076690907</v>
       </c>
       <c r="E89">
-        <v>0.3490412344528243</v>
+        <v>-0.01152032024544096</v>
       </c>
       <c r="F89">
-        <v>-0.00178363071186551</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.03166178008660991</v>
+      </c>
+      <c r="G89">
+        <v>0.02705485374445503</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1601614413228392</v>
+        <v>0.1772366835794775</v>
       </c>
       <c r="C90">
-        <v>0.03787801880681558</v>
+        <v>-0.3389160200445391</v>
       </c>
       <c r="D90">
-        <v>0.1074373896959998</v>
+        <v>-0.01278514090941604</v>
       </c>
       <c r="E90">
-        <v>0.2836649027105854</v>
+        <v>0.006364814892885545</v>
       </c>
       <c r="F90">
-        <v>0.05135299019623817</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.0447352707426909</v>
+      </c>
+      <c r="G90">
+        <v>0.003572149913753</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1148768581512733</v>
+        <v>0.2164386004511274</v>
       </c>
       <c r="C91">
-        <v>0.2262276453311532</v>
+        <v>0.1335372292643912</v>
       </c>
       <c r="D91">
-        <v>0.0316714431427158</v>
+        <v>-0.02672104379216232</v>
       </c>
       <c r="E91">
-        <v>-0.1811147803996288</v>
+        <v>-0.08585850948978635</v>
       </c>
       <c r="F91">
-        <v>0.2367434802604316</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1947341952914689</v>
+      </c>
+      <c r="G91">
+        <v>-0.0134390458897456</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2044443403491922</v>
+        <v>0.2087965681890403</v>
       </c>
       <c r="C92">
-        <v>0.199345251323079</v>
+        <v>-0.273429749408669</v>
       </c>
       <c r="D92">
-        <v>0.1334925502478223</v>
+        <v>-0.05668960326216918</v>
       </c>
       <c r="E92">
-        <v>0.2652231347003107</v>
+        <v>-0.005830145250515519</v>
       </c>
       <c r="F92">
-        <v>0.1544560414511987</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1378098825914112</v>
+      </c>
+      <c r="G92">
+        <v>0.06009095852906503</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2017474462362339</v>
+        <v>0.2000002436809053</v>
       </c>
       <c r="C93">
-        <v>0.08193486971052573</v>
+        <v>-0.3372459194775131</v>
       </c>
       <c r="D93">
-        <v>0.1499741943540017</v>
+        <v>-0.01982148583427821</v>
       </c>
       <c r="E93">
-        <v>0.3361196461931765</v>
+        <v>0.01145862560103007</v>
       </c>
       <c r="F93">
-        <v>0.005059703121202612</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01637424057982729</v>
+      </c>
+      <c r="G93">
+        <v>-0.0003662314509811239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1810842173934891</v>
+        <v>0.2841097556476771</v>
       </c>
       <c r="C94">
-        <v>0.227691664271671</v>
+        <v>0.1482024980835171</v>
       </c>
       <c r="D94">
-        <v>0.06518646692977567</v>
+        <v>-0.01562247874583455</v>
       </c>
       <c r="E94">
-        <v>-0.1775140597418613</v>
+        <v>-0.1001065100921726</v>
       </c>
       <c r="F94">
-        <v>0.239991359478991</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3787883438329621</v>
+      </c>
+      <c r="G94">
+        <v>-0.1171999109945151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.03057062685334994</v>
+        <v>0.08209357351883316</v>
       </c>
       <c r="C95">
-        <v>0.08597861726462798</v>
+        <v>0.07527180349002872</v>
       </c>
       <c r="D95">
-        <v>0.0946621935148808</v>
+        <v>-0.00809364972013242</v>
       </c>
       <c r="E95">
-        <v>-0.04859175227606275</v>
+        <v>0.07753478905464062</v>
       </c>
       <c r="F95">
-        <v>-0.01217754819051397</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.153329072074602</v>
+      </c>
+      <c r="G95">
+        <v>-0.07008625141054113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +2905,13 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +2928,36 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1325191382828398</v>
+        <v>0.2144732313796427</v>
       </c>
       <c r="C98">
-        <v>0.1412948887436168</v>
+        <v>0.03995013696897138</v>
       </c>
       <c r="D98">
-        <v>0.07696503003499941</v>
+        <v>-0.01974207591889749</v>
       </c>
       <c r="E98">
-        <v>-0.04263292970679375</v>
+        <v>0.0675274985009091</v>
       </c>
       <c r="F98">
-        <v>-0.2950023800577763</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2592811047011757</v>
+      </c>
+      <c r="G98">
+        <v>-0.03824081156560872</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +2974,13 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +2997,100 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01926146216224676</v>
+        <v>0.01405261743672221</v>
       </c>
       <c r="C101">
-        <v>0.02236047901606292</v>
+        <v>0.01948576954901395</v>
       </c>
       <c r="D101">
-        <v>-0.001952794081459724</v>
+        <v>0.008206215533159807</v>
       </c>
       <c r="E101">
-        <v>-0.02035327649257994</v>
+        <v>0.03510417620724934</v>
       </c>
       <c r="F101">
-        <v>-0.1099680544780235</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.02414746336055369</v>
+      </c>
+      <c r="G101">
+        <v>0.03665708037944972</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.08481021959249674</v>
+        <v>0.1268132591423716</v>
       </c>
       <c r="C102">
-        <v>0.1023256037930902</v>
+        <v>0.07730428076198843</v>
       </c>
       <c r="D102">
-        <v>0.01231613235628518</v>
+        <v>-0.001033443060858703</v>
       </c>
       <c r="E102">
-        <v>-0.0841789569940031</v>
+        <v>-0.04392150282995083</v>
       </c>
       <c r="F102">
-        <v>0.1022697879900958</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06548244380449683</v>
+      </c>
+      <c r="G102">
+        <v>-0.01466255740108742</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.01598807301817576</v>
+        <v>0.005976965106727999</v>
       </c>
       <c r="C103">
-        <v>0.02948259972590022</v>
+        <v>0.006223701411471582</v>
       </c>
       <c r="D103">
-        <v>-0.01321349552779493</v>
+        <v>0.0003758266919233018</v>
       </c>
       <c r="E103">
-        <v>-0.02606102125332113</v>
+        <v>-0.001925641756704305</v>
       </c>
       <c r="F103">
-        <v>0.01354489883516507</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01131347910581734</v>
+      </c>
+      <c r="G103">
+        <v>0.01410219919139915</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.7291100466955945</v>
+        <v>0.04441606535781358</v>
       </c>
       <c r="C104">
-        <v>-0.5988065612385536</v>
+        <v>-0.04695598753020391</v>
       </c>
       <c r="D104">
-        <v>-0.2325333323188155</v>
+        <v>0.9855782335356184</v>
       </c>
       <c r="E104">
-        <v>-0.185410212473623</v>
+        <v>-0.04513393556436558</v>
       </c>
       <c r="F104">
-        <v>0.06047522758775597</v>
+        <v>0.03826228287630804</v>
+      </c>
+      <c r="G104">
+        <v>-0.001390094598415152</v>
       </c>
     </row>
   </sheetData>
